--- a/data/04_statistics/Temp.xlsx
+++ b/data/04_statistics/Temp.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schmaelz/Documents/01_GITHUB/nomcomm/GITHUB_PAPERS_WORKING/vr_billboard_p/data/04_statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjcho/Documents/GitHub/vr_billboard_p/data/04_statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42113D1-EC68-2047-8208-15DCEFC9787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A3B698-1592-F640-8C38-D8BE7B6FDA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20020" xr2:uid="{2443A0EA-0C0D-0240-9C46-F3C32C0C721D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17440" xr2:uid="{2443A0EA-0C0D-0240-9C46-F3C32C0C721D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>sub001</t>
   </si>
@@ -77,18 +77,6 @@
     <t>sub013</t>
   </si>
   <si>
-    <t>recall_passed_fixated</t>
-  </si>
-  <si>
-    <t>recall_passed_incepted</t>
-  </si>
-  <si>
-    <t>recall_forgone</t>
-  </si>
-  <si>
-    <t>recall_repeated_forgone</t>
-  </si>
-  <si>
     <t xml:space="preserve">RECALL </t>
   </si>
   <si>
@@ -102,30 +90,74 @@
   </si>
   <si>
     <t>P-VALUE</t>
+  </si>
+  <si>
+    <t>sub015</t>
+  </si>
+  <si>
+    <t>sub016</t>
+  </si>
+  <si>
+    <t>sub017</t>
+  </si>
+  <si>
+    <t>sub018</t>
+  </si>
+  <si>
+    <t>sub019</t>
+  </si>
+  <si>
+    <t>sub020</t>
+  </si>
+  <si>
+    <t>recall_rate_passed_fixated</t>
+  </si>
+  <si>
+    <t>recall_rate_fixated_incepted</t>
+  </si>
+  <si>
+    <t>recall_rate_repeated_forgone</t>
+  </si>
+  <si>
+    <t>recall_rate_forgone</t>
+  </si>
+  <si>
+    <t>recognitionl_rate_passed_fixated</t>
+  </si>
+  <si>
+    <t>recognition_rate_fixated_incepted</t>
+  </si>
+  <si>
+    <t>recognition_rate_repeated_forgone</t>
+  </si>
+  <si>
+    <t>recognition_rate_forgone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Var(--jp-code-font-family)"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,10 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -185,6 +220,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -207,15 +272,15 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$E$18</c:f>
+              <c:f>Sheet1!$B$25:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.13413865546218484</c:v>
+                  <c:v>0.10807923169267705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28154678571428565</c:v>
+                  <c:v>0.19659816326530608</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -228,7 +293,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7808-F943-AE89-74290D210DD1}"/>
+              <c16:uniqueId val="{00000000-1DE7-DA4E-B118-B753430997C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -242,11 +307,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1206405536"/>
-        <c:axId val="856844480"/>
+        <c:axId val="172779551"/>
+        <c:axId val="172781951"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1206405536"/>
+        <c:axId val="172779551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -288,7 +353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="856844480"/>
+        <c:crossAx val="172781951"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -296,7 +361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="856844480"/>
+        <c:axId val="172781951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -347,7 +412,269 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1206405536"/>
+        <c:crossAx val="172779551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.30959033613445369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42244897959183664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5714285714285715E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11003401360544207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A872-3641-BC90-B806026E87F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1081679983"/>
+        <c:axId val="1081293183"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1081679983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081293183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081293183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081679983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -443,6 +770,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -946,27 +1313,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1339850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31274210-ECFB-211E-3AA8-3726C2F1820B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B893208-BAE7-6D10-DD1B-FC25C85B5F13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,6 +1849,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195609</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8758</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>108899</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910CEC6B-C28D-2F22-FB9E-82D8B36287F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -998,39 +1904,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1082,7 +1988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1193,6 +2099,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1201,13 +2114,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1272,31 +2178,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1304,47 +2190,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C850EF2-5A35-6842-A9C5-4427DC50AF34}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="24.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="24.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>5.8823529411764698E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.28571428571428498</v>
       </c>
       <c r="D3" s="1">
@@ -1353,9 +2259,21 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3" s="3">
+        <v>0.41176470588235198</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -1370,12 +2288,24 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
+      <c r="F4" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="17">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.214285714285714</v>
       </c>
       <c r="C5" s="1">
@@ -1387,9 +2317,21 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="F5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
@@ -1404,9 +2346,21 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7.1428571428571397E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
@@ -1421,9 +2375,21 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
+      <c r="F7" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.28571428571428498</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
@@ -1438,9 +2404,21 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
+      <c r="F8" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1">
@@ -1455,24 +2433,108 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
+      <c r="F9" s="3">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6.6666666666666596E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1">
@@ -1487,50 +2549,184 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
+      <c r="F13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.16666666666666599</v>
+      </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1">
         <f>AVERAGE(B3:B16)</f>
-        <v>0.13413865546218484</v>
-      </c>
-      <c r="C18" s="1">
+        <v>0.10807923169267705</v>
+      </c>
+      <c r="C25" s="1">
         <f>AVERAGE(C3:C16)</f>
-        <v>0.28154678571428565</v>
-      </c>
-      <c r="D18" s="1">
+        <v>0.19659816326530608</v>
+      </c>
+      <c r="D25" s="1">
         <f>AVERAGE(D3:D16)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E25" s="1">
         <f>AVERAGE(E3:E16)</f>
         <v>0</v>
       </c>
+      <c r="F25" s="1">
+        <f>AVERAGE(F3:F16)</f>
+        <v>0.30959033613445369</v>
+      </c>
+      <c r="G25" s="1">
+        <f>AVERAGE(G3:G16)</f>
+        <v>0.42244897959183664</v>
+      </c>
+      <c r="H25" s="1">
+        <f>AVERAGE(H3:H16)</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <f>AVERAGE(I3:I16)</f>
+        <v>0.11003401360544207</v>
+      </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>21</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B26" s="1">
         <f>TTEST(B3:B16,C3:C16,1,1)</f>
-        <v>0.14206315679490741</v>
+        <v>0.13773084165063143</v>
+      </c>
+      <c r="F26" s="1">
+        <f>TTEST(F3:F16,G3:G16,1,1)</f>
+        <v>9.7911734959870003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/04_statistics/Temp.xlsx
+++ b/data/04_statistics/Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjcho/Documents/GitHub/vr_billboard_p/data/04_statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A3B698-1592-F640-8C38-D8BE7B6FDA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1096E2F7-8999-F04B-B633-F7DF043011A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17440" xr2:uid="{2443A0EA-0C0D-0240-9C46-F3C32C0C721D}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14480" windowHeight="17360" xr2:uid="{2443A0EA-0C0D-0240-9C46-F3C32C0C721D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,15 +180,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2192,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C850EF2-5A35-6842-A9C5-4427DC50AF34}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2259,16 +2264,16 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0.41176470588235198</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2288,16 +2293,16 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0.33333333333333298</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>0.4</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2317,16 +2322,16 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0.5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>0.6</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -2346,16 +2351,16 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
@@ -2375,16 +2380,16 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>0.9375</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.28571428571428498</v>
       </c>
     </row>
@@ -2404,16 +2409,16 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0.125</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2433,16 +2438,16 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2462,16 +2467,16 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.2</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
     </row>
@@ -2491,16 +2496,16 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.25</v>
       </c>
     </row>
@@ -2520,16 +2525,16 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.2</v>
       </c>
     </row>
@@ -2549,16 +2554,16 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>0.4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>0.2</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2578,16 +2583,16 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>0.2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>0.5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.16666666666666599</v>
       </c>
     </row>
@@ -2607,16 +2612,16 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2636,22 +2641,46 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2684,35 +2713,35 @@
         <v>16</v>
       </c>
       <c r="B25" s="1">
-        <f>AVERAGE(B3:B16)</f>
+        <f t="shared" ref="B25:I25" si="0">AVERAGE(B3:B16)</f>
         <v>0.10807923169267705</v>
       </c>
       <c r="C25" s="1">
-        <f>AVERAGE(C3:C16)</f>
+        <f t="shared" si="0"/>
         <v>0.19659816326530608</v>
       </c>
       <c r="D25" s="1">
-        <f>AVERAGE(D3:D16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f>AVERAGE(E3:E16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f>AVERAGE(F3:F16)</f>
+        <f t="shared" si="0"/>
         <v>0.30959033613445369</v>
       </c>
       <c r="G25" s="1">
-        <f>AVERAGE(G3:G16)</f>
+        <f t="shared" si="0"/>
         <v>0.42244897959183664</v>
       </c>
       <c r="H25" s="1">
-        <f>AVERAGE(H3:H16)</f>
+        <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="I25" s="1">
-        <f>AVERAGE(I3:I16)</f>
+        <f t="shared" si="0"/>
         <v>0.11003401360544207</v>
       </c>
     </row>

--- a/data/04_statistics/Temp.xlsx
+++ b/data/04_statistics/Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjcho/Documents/GitHub/vr_billboard_p/data/04_statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1096E2F7-8999-F04B-B633-F7DF043011A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532914F4-4466-444D-ADDF-4C943A6FFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14480" windowHeight="17360" xr2:uid="{2443A0EA-0C0D-0240-9C46-F3C32C0C721D}"/>
+    <workbookView xWindow="13420" yWindow="740" windowWidth="15980" windowHeight="17340" xr2:uid="{2443A0EA-0C0D-0240-9C46-F3C32C0C721D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>sub001</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>recognition_rate_forgone</t>
+  </si>
+  <si>
+    <t>sub021</t>
   </si>
 </sst>
 </file>
@@ -160,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,17 +191,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,6 +235,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -282,13 +316,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.10807923169267705</c:v>
+                  <c:v>0.13711977329217762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19659816326530608</c:v>
+                  <c:v>0.23344639455782307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.1428571428571429E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -544,16 +578,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.30959033613445369</c:v>
+                  <c:v>0.3516479446128401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42244897959183664</c:v>
+                  <c:v>0.42925170068027202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5714285714285715E-2</c:v>
+                  <c:v>7.857142857142857E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11003401360544207</c:v>
+                  <c:v>0.10232426303854865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,564 +2232,713 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="24.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
         <v>5.8823529411764698E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.28571428571428498</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.41176470588235198</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>0.71428571428571397</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.2</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>0.4</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.214285714285714</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.4</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>0.6</v>
       </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>0.125</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.16666</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.9375</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.28571428571428498</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>0.375</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.125</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>0.1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0.2</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>0.2</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>6.6666666666666596E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.04</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>0.2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.2</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.4</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>0.2</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>0.2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>0.5</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>0.2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>0.5</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
         <v>0.16666666666666599</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>0.5</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>0.2</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.6666666666666596E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.12903225806451599</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.58064516129032195</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.16666666666666599</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1">
-        <f t="shared" ref="B25:I25" si="0">AVERAGE(B3:B16)</f>
-        <v>0.10807923169267705</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19659816326530608</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30959033613445369</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.42244897959183664</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11003401360544207</v>
+      <c r="B25" s="3">
+        <f>AVERAGE(B3:B23)</f>
+        <v>0.13711977329217762</v>
+      </c>
+      <c r="C25" s="3">
+        <f>AVERAGE(C3:C23)</f>
+        <v>0.23344639455782307</v>
+      </c>
+      <c r="D25" s="3">
+        <f>AVERAGE(D3:D23)</f>
+        <v>2.1428571428571429E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <f>AVERAGE(E3:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f>AVERAGE(F3:F23)</f>
+        <v>0.3516479446128401</v>
+      </c>
+      <c r="G25" s="3">
+        <f>AVERAGE(G3:G23)</f>
+        <v>0.42925170068027202</v>
+      </c>
+      <c r="H25" s="3">
+        <f>AVERAGE(H3:H23)</f>
+        <v>7.857142857142857E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <f>AVERAGE(I3:I23)</f>
+        <v>0.10232426303854865</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="1">
-        <f>TTEST(B3:B16,C3:C16,1,1)</f>
-        <v>0.13773084165063143</v>
-      </c>
-      <c r="F26" s="1">
-        <f>TTEST(F3:F16,G3:G16,1,1)</f>
-        <v>9.7911734959870003E-2</v>
+      <c r="B26" s="4">
+        <f>TTEST(B3:B23,C3:C23,1,1)</f>
+        <v>5.4386876416619566E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <f>TTEST(F3:F23,G3:G23,1,1)</f>
+        <v>0.10238461016240798</v>
       </c>
     </row>
   </sheetData>

--- a/data/04_statistics/Temp.xlsx
+++ b/data/04_statistics/Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjcho/Documents/GitHub/vr_billboard_p/data/04_statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532914F4-4466-444D-ADDF-4C943A6FFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0776BF-FB41-494D-8D43-833A7BF49FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="740" windowWidth="15980" windowHeight="17340" xr2:uid="{2443A0EA-0C0D-0240-9C46-F3C32C0C721D}"/>
+    <workbookView xWindow="13420" yWindow="740" windowWidth="15980" windowHeight="17320" xr2:uid="{2443A0EA-0C0D-0240-9C46-F3C32C0C721D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C850EF2-5A35-6842-A9C5-4427DC50AF34}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2896,35 +2896,35 @@
         <v>16</v>
       </c>
       <c r="B25" s="3">
-        <f>AVERAGE(B3:B23)</f>
+        <f t="shared" ref="B25:I25" si="0">AVERAGE(B3:B23)</f>
         <v>0.13711977329217762</v>
       </c>
       <c r="C25" s="3">
-        <f>AVERAGE(C3:C23)</f>
+        <f t="shared" si="0"/>
         <v>0.23344639455782307</v>
       </c>
       <c r="D25" s="3">
-        <f>AVERAGE(D3:D23)</f>
+        <f t="shared" si="0"/>
         <v>2.1428571428571429E-2</v>
       </c>
       <c r="E25" s="3">
-        <f>AVERAGE(E3:E23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <f>AVERAGE(F3:F23)</f>
+        <f t="shared" si="0"/>
         <v>0.3516479446128401</v>
       </c>
       <c r="G25" s="3">
-        <f>AVERAGE(G3:G23)</f>
+        <f t="shared" si="0"/>
         <v>0.42925170068027202</v>
       </c>
       <c r="H25" s="3">
-        <f>AVERAGE(H3:H23)</f>
+        <f t="shared" si="0"/>
         <v>7.857142857142857E-2</v>
       </c>
       <c r="I25" s="3">
-        <f>AVERAGE(I3:I23)</f>
+        <f t="shared" si="0"/>
         <v>0.10232426303854865</v>
       </c>
     </row>
